--- a/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0130/1/template_RP0130.xlsx
+++ b/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0130/1/template_RP0130.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.223\01.0004 ２部プロジェクト\11.002 TMQ\12.TMQリニューアル\20.基本設計\帳票\20220630_xlsからxlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TMQ\CommonTemplate\TMQ_Version\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0130\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76D58E3-21BB-44E7-84D7-3DD69BD55842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D897E2-4929-495E-9004-B7CC07AEF024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
   <si>
     <t>［Ａ票］</t>
   </si>
@@ -369,87 +369,6 @@
     <rPh sb="1" eb="3">
       <t>ケンメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@依頼内容１</t>
-    <rPh sb="1" eb="5">
-      <t>イライナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@依頼内容２</t>
-    <rPh sb="1" eb="5">
-      <t>イライナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@依頼内容３</t>
-    <rPh sb="1" eb="5">
-      <t>イライナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@依頼内容４</t>
-    <rPh sb="1" eb="5">
-      <t>イライナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@依頼内容５</t>
-    <rPh sb="1" eb="5">
-      <t>イライナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@依頼内容６</t>
-    <rPh sb="1" eb="5">
-      <t>イライナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@作業計画１</t>
-    <rPh sb="1" eb="5">
-      <t>サギョウケイカク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@作業計画２</t>
-    <rPh sb="1" eb="5">
-      <t>サギョウケイカク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@作業計画３</t>
-    <rPh sb="1" eb="5">
-      <t>サギョウケイカク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@作業計画４</t>
-    <rPh sb="1" eb="5">
-      <t>サギョウケイカク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@作業計画５</t>
-    <rPh sb="1" eb="5">
-      <t>サギョウケイカク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@作業計画６</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -473,43 +392,49 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>@完了報告１</t>
-    <rPh sb="1" eb="5">
-      <t>カンリョウホウコク</t>
+    <t>@課長</t>
+    <rPh sb="1" eb="3">
+      <t>カチョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>@完了報告２</t>
+    <t>@係長</t>
+    <rPh sb="1" eb="3">
+      <t>カカリチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@依頼内容</t>
+    <rPh sb="1" eb="5">
+      <t>イライナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@作業計画内容</t>
+    <rPh sb="1" eb="3">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>@完了報告内容</t>
     <rPh sb="1" eb="3">
       <t>カンリョウ</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>ホウコク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@完了報告３</t>
-    <rPh sb="1" eb="3">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ホウコク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@課長</t>
-    <rPh sb="1" eb="3">
-      <t>カチョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>@係長</t>
-    <rPh sb="1" eb="3">
-      <t>カカリチョウ</t>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1368,15 +1293,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="39" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1687,10 +1606,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="46" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="13" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1699,6 +1615,33 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="23" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="35" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2115,18 +2058,18 @@
       <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A7" s="176" t="s">
+      <c r="A7" s="170" t="s">
         <v>98</v>
       </c>
       <c r="B7" s="28"/>
-      <c r="C7" s="177" t="s">
+      <c r="C7" s="171" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="178" t="s">
+      <c r="D7" s="172" t="s">
         <v>100</v>
       </c>
       <c r="E7" s="28"/>
-      <c r="F7" s="177" t="s">
+      <c r="F7" s="171" t="s">
         <v>101</v>
       </c>
       <c r="G7" s="29"/>
@@ -2153,7 +2096,7 @@
       <c r="G8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="179" t="s">
+      <c r="H8" s="173" t="s">
         <v>102</v>
       </c>
       <c r="I8" s="37"/>
@@ -2187,7 +2130,7 @@
         <v>19</v>
       </c>
       <c r="L9" s="43"/>
-      <c r="M9" s="179" t="s">
+      <c r="M9" s="173" t="s">
         <v>103</v>
       </c>
       <c r="N9" s="44"/>
@@ -2199,7 +2142,7 @@
       <c r="A10" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="180" t="s">
+      <c r="B10" s="174" t="s">
         <v>104</v>
       </c>
       <c r="C10" s="47"/>
@@ -2207,7 +2150,7 @@
       <c r="E10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="180" t="s">
+      <c r="F10" s="174" t="s">
         <v>105</v>
       </c>
       <c r="G10" s="47"/>
@@ -2243,180 +2186,170 @@
       <c r="B14" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="181" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="55"/>
+      <c r="C14" s="179" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="180"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="180"/>
+      <c r="O14" s="180"/>
+      <c r="P14" s="181"/>
       <c r="Q14" s="27"/>
     </row>
     <row r="15" spans="1:17" ht="13.5" customHeight="1">
       <c r="A15" s="52"/>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="183" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="58"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="183"/>
+      <c r="L15" s="183"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="183"/>
+      <c r="O15" s="183"/>
+      <c r="P15" s="184"/>
       <c r="Q15" s="27"/>
     </row>
     <row r="16" spans="1:17" ht="13.5" customHeight="1">
       <c r="A16" s="52"/>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="183" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="58"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="183"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="183"/>
+      <c r="L16" s="183"/>
+      <c r="M16" s="183"/>
+      <c r="N16" s="183"/>
+      <c r="O16" s="183"/>
+      <c r="P16" s="184"/>
       <c r="Q16" s="27"/>
     </row>
     <row r="17" spans="1:17" ht="13.5" customHeight="1">
       <c r="A17" s="52"/>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="183" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="58"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="183"/>
+      <c r="L17" s="183"/>
+      <c r="M17" s="183"/>
+      <c r="N17" s="183"/>
+      <c r="O17" s="183"/>
+      <c r="P17" s="184"/>
       <c r="Q17" s="27"/>
     </row>
     <row r="18" spans="1:17" ht="13.5" customHeight="1">
       <c r="A18" s="52"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="183" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="58"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="183"/>
+      <c r="M18" s="183"/>
+      <c r="N18" s="183"/>
+      <c r="O18" s="183"/>
+      <c r="P18" s="184"/>
       <c r="Q18" s="27"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="52"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="184" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="60"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="185"/>
+      <c r="D19" s="186"/>
+      <c r="E19" s="186"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="186"/>
+      <c r="K19" s="186"/>
+      <c r="L19" s="186"/>
+      <c r="M19" s="186"/>
+      <c r="N19" s="186"/>
+      <c r="O19" s="186"/>
+      <c r="P19" s="187"/>
       <c r="Q19" s="27"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="52"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="61"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
       <c r="P20" s="27"/>
       <c r="Q20" s="27"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="52"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="61"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
       <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="52"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="61"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="52"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="61"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
       <c r="P23" s="27"/>
       <c r="Q23" s="27"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A24" s="52"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="65"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="59"/>
       <c r="Q24" s="27"/>
     </row>
     <row r="25" spans="1:17" ht="13.5" customHeight="1">
@@ -2424,311 +2357,301 @@
       <c r="B25" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="181" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="55"/>
+      <c r="C25" s="179" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="180"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="180"/>
+      <c r="J25" s="180"/>
+      <c r="K25" s="180"/>
+      <c r="L25" s="180"/>
+      <c r="M25" s="180"/>
+      <c r="N25" s="180"/>
+      <c r="O25" s="180"/>
+      <c r="P25" s="181"/>
       <c r="Q25" s="27"/>
     </row>
     <row r="26" spans="1:17" ht="13.5" customHeight="1">
       <c r="A26" s="52"/>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="183" t="s">
-        <v>113</v>
-      </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="58"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="183"/>
+      <c r="O26" s="183"/>
+      <c r="P26" s="184"/>
       <c r="Q26" s="27"/>
     </row>
     <row r="27" spans="1:17" ht="13.5" customHeight="1">
       <c r="A27" s="52"/>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="183" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="58"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="183"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="183"/>
+      <c r="O27" s="183"/>
+      <c r="P27" s="184"/>
       <c r="Q27" s="27"/>
     </row>
     <row r="28" spans="1:17" ht="13.5" customHeight="1">
       <c r="A28" s="52"/>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="183" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="58"/>
+      <c r="C28" s="182"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="183"/>
+      <c r="L28" s="183"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="183"/>
+      <c r="O28" s="183"/>
+      <c r="P28" s="184"/>
       <c r="Q28" s="27"/>
     </row>
     <row r="29" spans="1:17" ht="13.5" customHeight="1">
       <c r="A29" s="52"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="183" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="58"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="182"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="183"/>
+      <c r="O29" s="183"/>
+      <c r="P29" s="184"/>
       <c r="Q29" s="27"/>
     </row>
     <row r="30" spans="1:17" ht="13.5" customHeight="1">
       <c r="A30" s="52"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="184" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="60"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="186"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="186"/>
+      <c r="J30" s="186"/>
+      <c r="K30" s="186"/>
+      <c r="L30" s="186"/>
+      <c r="M30" s="186"/>
+      <c r="N30" s="186"/>
+      <c r="O30" s="186"/>
+      <c r="P30" s="187"/>
       <c r="Q30" s="27"/>
     </row>
     <row r="31" spans="1:17" ht="13.5" customHeight="1">
       <c r="A31" s="52"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="61"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
       <c r="P31" s="27"/>
       <c r="Q31" s="27"/>
     </row>
     <row r="32" spans="1:17" ht="13.5" customHeight="1">
       <c r="A32" s="52"/>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="61"/>
+      <c r="C32" s="55"/>
       <c r="P32" s="27"/>
       <c r="Q32" s="27"/>
     </row>
     <row r="33" spans="1:17" ht="13.5" customHeight="1">
       <c r="A33" s="52"/>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="61"/>
+      <c r="C33" s="55"/>
       <c r="P33" s="27"/>
       <c r="Q33" s="27"/>
     </row>
     <row r="34" spans="1:17" ht="13.5" customHeight="1">
       <c r="A34" s="52"/>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="61"/>
+      <c r="C34" s="55"/>
       <c r="P34" s="27"/>
       <c r="Q34" s="27"/>
     </row>
     <row r="35" spans="1:17" ht="13.5" customHeight="1">
       <c r="A35" s="52"/>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="61"/>
+      <c r="C35" s="55"/>
       <c r="P35" s="27"/>
       <c r="Q35" s="27"/>
     </row>
     <row r="36" spans="1:17" ht="13.5" customHeight="1">
       <c r="A36" s="52"/>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="61"/>
+      <c r="C36" s="55"/>
       <c r="P36" s="27"/>
       <c r="Q36" s="27"/>
     </row>
     <row r="37" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A37" s="52"/>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64" t="s">
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="64"/>
-      <c r="M37" s="64"/>
-      <c r="N37" s="64"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="65"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="59"/>
       <c r="Q37" s="27"/>
     </row>
     <row r="38" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A38" s="52"/>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="68"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="182" t="s">
-        <v>118</v>
-      </c>
-      <c r="G38" s="70"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="67" t="s">
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="175" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="64"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="J38" s="68"/>
-      <c r="K38" s="69"/>
-      <c r="L38" s="182" t="s">
-        <v>119</v>
-      </c>
-      <c r="M38" s="70"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="70"/>
-      <c r="P38" s="71"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="175" t="s">
+        <v>107</v>
+      </c>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="65"/>
       <c r="Q38" s="27"/>
     </row>
     <row r="39" spans="1:17" ht="13.5" customHeight="1">
       <c r="A39" s="52"/>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="72" t="s">
+      <c r="C39" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73" t="s">
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73" t="s">
+      <c r="G39" s="67"/>
+      <c r="H39" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="I39" s="73"/>
-      <c r="J39" s="73"/>
-      <c r="K39" s="73" t="s">
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+      <c r="K39" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="L39" s="73"/>
-      <c r="M39" s="74"/>
+      <c r="L39" s="67"/>
+      <c r="M39" s="68"/>
       <c r="N39" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="O39" s="75"/>
-      <c r="P39" s="76"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="70"/>
       <c r="Q39" s="27"/>
     </row>
     <row r="40" spans="1:17" ht="13.5" customHeight="1">
       <c r="A40" s="52"/>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="77"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="56"/>
+      <c r="C40" s="71"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="54"/>
       <c r="O40" s="52"/>
-      <c r="P40" s="78"/>
+      <c r="P40" s="72"/>
       <c r="Q40" s="27"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A41" s="52"/>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="64"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="62" t="s">
+      <c r="C41" s="73"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="O41" s="81"/>
-      <c r="P41" s="80"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="74"/>
       <c r="Q41" s="27"/>
     </row>
     <row r="42" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A42" s="52"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="72" t="s">
+      <c r="B42" s="54"/>
+      <c r="C42" s="66" t="s">
         <v>50</v>
       </c>
       <c r="D42" s="7"/>
@@ -2738,219 +2661,220 @@
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
-      <c r="L42" s="82" t="s">
+      <c r="L42" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="M42" s="83" t="s">
+      <c r="M42" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="N42" s="76" t="s">
+      <c r="N42" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="O42" s="75"/>
-      <c r="P42" s="76"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="70"/>
       <c r="Q42" s="27"/>
     </row>
     <row r="43" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A43" s="52"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="77"/>
-      <c r="L43" s="82" t="s">
+      <c r="B43" s="54"/>
+      <c r="C43" s="71"/>
+      <c r="L43" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="M43" s="84"/>
-      <c r="N43" s="78" t="s">
+      <c r="M43" s="78"/>
+      <c r="N43" s="72" t="s">
         <v>32</v>
       </c>
       <c r="O43" s="52"/>
-      <c r="P43" s="78"/>
+      <c r="P43" s="72"/>
       <c r="Q43" s="27"/>
     </row>
     <row r="44" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A44" s="52"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="77"/>
-      <c r="L44" s="82" t="s">
+      <c r="B44" s="54"/>
+      <c r="C44" s="71"/>
+      <c r="L44" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="M44" s="84"/>
-      <c r="N44" s="78" t="s">
+      <c r="M44" s="78"/>
+      <c r="N44" s="72" t="s">
         <v>46</v>
       </c>
       <c r="O44" s="52"/>
-      <c r="P44" s="78"/>
+      <c r="P44" s="72"/>
       <c r="Q44" s="27"/>
     </row>
     <row r="45" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A45" s="52"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="64"/>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="86" t="s">
+      <c r="B45" s="56"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="N45" s="80" t="s">
+      <c r="N45" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="O45" s="81"/>
-      <c r="P45" s="80"/>
+      <c r="O45" s="75"/>
+      <c r="P45" s="74"/>
       <c r="Q45" s="27"/>
     </row>
     <row r="46" spans="1:17" ht="13.5" customHeight="1">
       <c r="A46" s="52"/>
       <c r="B46" s="53"/>
-      <c r="C46" s="181" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="55"/>
+      <c r="C46" s="179" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="180"/>
+      <c r="E46" s="180"/>
+      <c r="F46" s="180"/>
+      <c r="G46" s="180"/>
+      <c r="H46" s="180"/>
+      <c r="I46" s="180"/>
+      <c r="J46" s="180"/>
+      <c r="K46" s="180"/>
+      <c r="L46" s="181"/>
       <c r="M46" s="53"/>
       <c r="N46" s="53"/>
-      <c r="O46" s="75"/>
-      <c r="P46" s="76"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="70"/>
       <c r="Q46" s="27"/>
     </row>
     <row r="47" spans="1:17" ht="13.5" customHeight="1">
       <c r="A47" s="52"/>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="183" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="56" t="s">
+      <c r="C47" s="182"/>
+      <c r="D47" s="183"/>
+      <c r="E47" s="183"/>
+      <c r="F47" s="183"/>
+      <c r="G47" s="183"/>
+      <c r="H47" s="183"/>
+      <c r="I47" s="183"/>
+      <c r="J47" s="183"/>
+      <c r="K47" s="183"/>
+      <c r="L47" s="184"/>
+      <c r="M47" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="N47" s="56"/>
+      <c r="N47" s="54"/>
       <c r="O47" s="52"/>
-      <c r="P47" s="78"/>
+      <c r="P47" s="72"/>
       <c r="Q47" s="27"/>
     </row>
     <row r="48" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A48" s="52"/>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="184" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="60"/>
-      <c r="M48" s="56" t="s">
+      <c r="C48" s="185"/>
+      <c r="D48" s="186"/>
+      <c r="E48" s="186"/>
+      <c r="F48" s="186"/>
+      <c r="G48" s="186"/>
+      <c r="H48" s="186"/>
+      <c r="I48" s="186"/>
+      <c r="J48" s="186"/>
+      <c r="K48" s="186"/>
+      <c r="L48" s="187"/>
+      <c r="M48" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="N48" s="62"/>
-      <c r="O48" s="81"/>
-      <c r="P48" s="80"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="75"/>
+      <c r="P48" s="74"/>
       <c r="Q48" s="27"/>
     </row>
     <row r="49" spans="1:17" ht="13.5" customHeight="1">
       <c r="A49" s="52"/>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="87"/>
+      <c r="C49" s="81"/>
       <c r="L49" s="27"/>
-      <c r="M49" s="56" t="s">
+      <c r="M49" s="54" t="s">
         <v>46</v>
       </c>
       <c r="N49" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="O49" s="75"/>
-      <c r="P49" s="76"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="70"/>
       <c r="Q49" s="27"/>
     </row>
     <row r="50" spans="1:17" ht="13.5" customHeight="1">
       <c r="A50" s="52"/>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="87"/>
+      <c r="C50" s="81"/>
       <c r="L50" s="27"/>
-      <c r="M50" s="56" t="s">
+      <c r="M50" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="N50" s="56"/>
+      <c r="N50" s="54"/>
       <c r="O50" s="52"/>
-      <c r="P50" s="78"/>
+      <c r="P50" s="72"/>
       <c r="Q50" s="27"/>
     </row>
     <row r="51" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A51" s="52"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="65"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62" t="s">
+      <c r="B51" s="79"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="O51" s="81"/>
-      <c r="P51" s="80"/>
+      <c r="O51" s="75"/>
+      <c r="P51" s="74"/>
       <c r="Q51" s="27"/>
     </row>
     <row r="52" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A52" s="81"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="64"/>
-      <c r="L52" s="64"/>
-      <c r="M52" s="64"/>
-      <c r="N52" s="64"/>
-      <c r="O52" s="64"/>
-      <c r="P52" s="89"/>
-      <c r="Q52" s="65"/>
+      <c r="A52" s="75"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="58"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="58"/>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="59"/>
     </row>
     <row r="53" spans="1:17">
       <c r="P53" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C14:P19"/>
+    <mergeCell ref="C25:P30"/>
+    <mergeCell ref="C46:L48"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -2984,1290 +2908,1290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="17.25">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="s">
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
     </row>
     <row r="2" spans="1:22" ht="14.25" thickBot="1">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="94" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="95"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98" t="s">
+      <c r="I3" s="89"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="99"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="93"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="100"/>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="94"/>
+      <c r="B4" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="102" t="s">
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="103"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="105" t="s">
+      <c r="I4" s="97"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="106"/>
-      <c r="M4" s="107" t="s">
+      <c r="L4" s="100"/>
+      <c r="M4" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="106"/>
-      <c r="P4" s="107" t="s">
+      <c r="O4" s="100"/>
+      <c r="P4" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="R4" s="107"/>
-      <c r="S4" s="108" t="s">
+      <c r="R4" s="101"/>
+      <c r="S4" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="T4" s="105" t="s">
+      <c r="T4" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="U4" s="107"/>
-      <c r="V4" s="109" t="s">
+      <c r="U4" s="101"/>
+      <c r="V4" s="103" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="100"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="110" t="s">
+      <c r="A5" s="94"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="111" t="s">
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="112"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="113"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="113"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="116"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="110"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="117"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="119" t="s">
+      <c r="A6" s="111"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="185" t="s">
-        <v>123</v>
-      </c>
-      <c r="L6" s="121"/>
-      <c r="M6" s="122"/>
-      <c r="N6" s="185" t="s">
-        <v>124</v>
-      </c>
-      <c r="O6" s="121"/>
-      <c r="P6" s="122"/>
-      <c r="Q6" s="185" t="s">
+      <c r="I6" s="97"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="176" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" s="115"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="176" t="s">
+        <v>109</v>
+      </c>
+      <c r="O6" s="115"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="176" t="s">
         <v>100</v>
       </c>
-      <c r="R6" s="121"/>
-      <c r="S6" s="122"/>
-      <c r="T6" s="185" t="s">
+      <c r="R6" s="115"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="176" t="s">
         <v>101</v>
       </c>
-      <c r="U6" s="121"/>
-      <c r="V6" s="123"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="117"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="186" t="s">
+      <c r="B7" s="177" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="126"/>
-      <c r="D7" s="102" t="s">
+      <c r="C7" s="120"/>
+      <c r="D7" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="127" t="s">
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="128"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="125"/>
-      <c r="P7" s="126"/>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="129"/>
-      <c r="U7" s="125"/>
-      <c r="V7" s="130"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="119"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="123"/>
+      <c r="U7" s="119"/>
+      <c r="V7" s="124"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="132" t="s">
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="134" t="s">
+      <c r="H8" s="105"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="135"/>
-      <c r="P8" s="186" t="s">
+      <c r="O8" s="129"/>
+      <c r="P8" s="177" t="s">
         <v>103</v>
       </c>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="136"/>
-      <c r="T8" s="136"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="137"/>
+      <c r="Q8" s="119"/>
+      <c r="R8" s="119"/>
+      <c r="S8" s="130"/>
+      <c r="T8" s="130"/>
+      <c r="U8" s="130"/>
+      <c r="V8" s="131"/>
     </row>
     <row r="9" spans="1:22" hidden="1">
-      <c r="A9" s="138"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="140"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="142"/>
-      <c r="T9" s="142"/>
-      <c r="U9" s="142"/>
-      <c r="V9" s="143"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="136"/>
+      <c r="T9" s="136"/>
+      <c r="U9" s="136"/>
+      <c r="V9" s="137"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="187" t="s">
+      <c r="B10" s="178" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="144" t="s">
+      <c r="C10" s="119"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="118"/>
-      <c r="J10" s="118"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="102" t="s">
+      <c r="H10" s="96"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="O10" s="103"/>
-      <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
-      <c r="R10" s="90"/>
-      <c r="S10" s="142"/>
-      <c r="T10" s="142"/>
-      <c r="U10" s="142"/>
-      <c r="V10" s="143"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="136"/>
+      <c r="T10" s="136"/>
+      <c r="U10" s="136"/>
+      <c r="V10" s="137"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="145" t="s">
+      <c r="A11" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="140" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="140" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="146" t="s">
+      <c r="D11" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="146" t="s">
+      <c r="E11" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="146"/>
-      <c r="G11" s="147" t="s">
+      <c r="F11" s="140"/>
+      <c r="G11" s="141" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="146" t="s">
+      <c r="H11" s="140" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="146" t="s">
+      <c r="I11" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="148"/>
-      <c r="K11" s="149" t="s">
+      <c r="J11" s="142"/>
+      <c r="K11" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="128" t="s">
+      <c r="L11" s="122" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="149" t="s">
+      <c r="M11" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="N11" s="150" t="s">
+      <c r="N11" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="O11" s="149" t="s">
+      <c r="O11" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="P11" s="150" t="s">
+      <c r="P11" s="144" t="s">
         <v>75</v>
       </c>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="151"/>
-      <c r="S11" s="149" t="s">
+      <c r="Q11" s="142"/>
+      <c r="R11" s="145"/>
+      <c r="S11" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="T11" s="152" t="s">
+      <c r="T11" s="146" t="s">
         <v>90</v>
       </c>
-      <c r="U11" s="148"/>
-      <c r="V11" s="153"/>
+      <c r="U11" s="142"/>
+      <c r="V11" s="147"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="154" t="s">
+      <c r="A12" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="146"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="148"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="148"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="151"/>
-      <c r="S12" s="148"/>
-      <c r="T12" s="151"/>
-      <c r="U12" s="148"/>
-      <c r="V12" s="155"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="142"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="142"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="142"/>
+      <c r="R12" s="145"/>
+      <c r="S12" s="142"/>
+      <c r="T12" s="145"/>
+      <c r="U12" s="142"/>
+      <c r="V12" s="149"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="156"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="157"/>
+      <c r="A13" s="150"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="151"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
-      <c r="T14" s="90"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="157"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="151"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="100"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="157"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="151"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="100"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="90"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="157"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="151"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="100"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="157"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="151"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="100"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="M18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="90"/>
-      <c r="T18" s="90"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="157"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="151"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="100"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="90"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="157"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="84"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="151"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="100"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="157"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="84"/>
+      <c r="N20" s="84"/>
+      <c r="O20" s="84"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="151"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="100"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="90"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="157"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="151"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="100"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="157"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="84"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="151"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="100"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90"/>
-      <c r="T23" s="90"/>
-      <c r="U23" s="90"/>
-      <c r="V23" s="157"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="84"/>
+      <c r="V23" s="151"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="100"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="90"/>
-      <c r="U24" s="90"/>
-      <c r="V24" s="157"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="84"/>
+      <c r="S24" s="84"/>
+      <c r="T24" s="84"/>
+      <c r="U24" s="84"/>
+      <c r="V24" s="151"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="100"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="90"/>
-      <c r="U25" s="90"/>
-      <c r="V25" s="157"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="84"/>
+      <c r="V25" s="151"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="100"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="90"/>
-      <c r="T26" s="90"/>
-      <c r="U26" s="90"/>
-      <c r="V26" s="157"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="84"/>
+      <c r="T26" s="84"/>
+      <c r="U26" s="84"/>
+      <c r="V26" s="151"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="100"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
-      <c r="Q27" s="90"/>
-      <c r="R27" s="90" t="s">
+      <c r="A27" s="94"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="S27" s="90" t="s">
+      <c r="S27" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="T27" s="90" t="s">
+      <c r="T27" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="U27" s="90" t="s">
+      <c r="U27" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="V27" s="157" t="s">
+      <c r="V27" s="151" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="100"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="90"/>
-      <c r="K28" s="90"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
-      <c r="P28" s="90"/>
-      <c r="Q28" s="90"/>
-      <c r="R28" s="90" t="s">
+      <c r="A28" s="94"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="S28" s="90" t="s">
+      <c r="S28" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="T28" s="90" t="s">
+      <c r="T28" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="U28" s="90" t="s">
+      <c r="U28" s="84" t="s">
         <v>60</v>
       </c>
-      <c r="V28" s="157" t="s">
+      <c r="V28" s="151" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="100"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-      <c r="R29" s="90"/>
-      <c r="S29" s="90"/>
-      <c r="T29" s="90"/>
-      <c r="U29" s="90"/>
-      <c r="V29" s="157"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="151"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="100"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-      <c r="P30" s="90"/>
-      <c r="Q30" s="90"/>
-      <c r="R30" s="90"/>
-      <c r="S30" s="127"/>
-      <c r="T30" s="158" t="s">
+      <c r="A30" s="94"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="121"/>
+      <c r="T30" s="152" t="s">
         <v>93</v>
       </c>
-      <c r="U30" s="158"/>
-      <c r="V30" s="153"/>
+      <c r="U30" s="152"/>
+      <c r="V30" s="147"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="100"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="90"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
-      <c r="N31" s="90"/>
-      <c r="O31" s="90"/>
-      <c r="P31" s="90"/>
-      <c r="Q31" s="90"/>
-      <c r="R31" s="90"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="133"/>
-      <c r="U31" s="133"/>
-      <c r="V31" s="159"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="105"/>
+      <c r="T31" s="127"/>
+      <c r="U31" s="127"/>
+      <c r="V31" s="153"/>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="100"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="90"/>
-      <c r="M32" s="90"/>
-      <c r="N32" s="90"/>
-      <c r="O32" s="90"/>
-      <c r="P32" s="90"/>
-      <c r="Q32" s="90"/>
-      <c r="R32" s="90"/>
-      <c r="S32" s="140"/>
-      <c r="T32" s="90"/>
-      <c r="U32" s="90"/>
-      <c r="V32" s="157"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="134"/>
+      <c r="T32" s="84"/>
+      <c r="U32" s="84"/>
+      <c r="V32" s="151"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="100"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-      <c r="N33" s="90"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="90"/>
-      <c r="Q33" s="90"/>
-      <c r="R33" s="90"/>
-      <c r="S33" s="140"/>
-      <c r="T33" s="90"/>
-      <c r="U33" s="90"/>
-      <c r="V33" s="157"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="134"/>
+      <c r="T33" s="84"/>
+      <c r="U33" s="84"/>
+      <c r="V33" s="151"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="100"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="90"/>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="90"/>
-      <c r="S34" s="140"/>
-      <c r="T34" s="90"/>
-      <c r="U34" s="90"/>
-      <c r="V34" s="157"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="134"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="84"/>
+      <c r="V34" s="151"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="160" t="s">
+      <c r="A35" s="154" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="127"/>
-      <c r="C35" s="158" t="s">
+      <c r="B35" s="121"/>
+      <c r="C35" s="152" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="158"/>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="158"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="158"/>
-      <c r="K35" s="158"/>
-      <c r="L35" s="158"/>
-      <c r="M35" s="158"/>
-      <c r="N35" s="158"/>
-      <c r="O35" s="161" t="s">
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
+      <c r="N35" s="152"/>
+      <c r="O35" s="155" t="s">
         <v>96</v>
       </c>
-      <c r="P35" s="162"/>
-      <c r="Q35" s="162"/>
-      <c r="R35" s="163"/>
-      <c r="S35" s="162" t="s">
+      <c r="P35" s="156"/>
+      <c r="Q35" s="156"/>
+      <c r="R35" s="157"/>
+      <c r="S35" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="T35" s="162"/>
-      <c r="U35" s="162"/>
-      <c r="V35" s="164"/>
+      <c r="T35" s="156"/>
+      <c r="U35" s="156"/>
+      <c r="V35" s="158"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="165"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="133"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="133"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="133"/>
-      <c r="J36" s="133"/>
-      <c r="K36" s="133"/>
-      <c r="L36" s="133"/>
-      <c r="M36" s="133"/>
-      <c r="N36" s="133"/>
-      <c r="O36" s="111"/>
-      <c r="P36" s="133"/>
-      <c r="Q36" s="133"/>
-      <c r="R36" s="112"/>
-      <c r="S36" s="133"/>
-      <c r="T36" s="133"/>
-      <c r="U36" s="133"/>
-      <c r="V36" s="159"/>
+      <c r="A36" s="159"/>
+      <c r="B36" s="105"/>
+      <c r="C36" s="127"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="127"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="127"/>
+      <c r="K36" s="127"/>
+      <c r="L36" s="127"/>
+      <c r="M36" s="127"/>
+      <c r="N36" s="127"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="127"/>
+      <c r="Q36" s="127"/>
+      <c r="R36" s="106"/>
+      <c r="S36" s="127"/>
+      <c r="T36" s="127"/>
+      <c r="U36" s="127"/>
+      <c r="V36" s="153"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="166"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="168"/>
-      <c r="E37" s="168"/>
-      <c r="F37" s="168"/>
-      <c r="G37" s="168"/>
-      <c r="H37" s="168"/>
-      <c r="I37" s="168"/>
-      <c r="J37" s="168"/>
-      <c r="K37" s="168"/>
-      <c r="L37" s="168"/>
-      <c r="M37" s="168"/>
-      <c r="N37" s="168"/>
-      <c r="O37" s="167"/>
-      <c r="P37" s="168"/>
-      <c r="Q37" s="168"/>
-      <c r="R37" s="169"/>
-      <c r="S37" s="168"/>
-      <c r="T37" s="168"/>
-      <c r="U37" s="168"/>
-      <c r="V37" s="170"/>
+      <c r="A37" s="160"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="162"/>
+      <c r="D37" s="162"/>
+      <c r="E37" s="162"/>
+      <c r="F37" s="162"/>
+      <c r="G37" s="162"/>
+      <c r="H37" s="162"/>
+      <c r="I37" s="162"/>
+      <c r="J37" s="162"/>
+      <c r="K37" s="162"/>
+      <c r="L37" s="162"/>
+      <c r="M37" s="162"/>
+      <c r="N37" s="162"/>
+      <c r="O37" s="161"/>
+      <c r="P37" s="162"/>
+      <c r="Q37" s="162"/>
+      <c r="R37" s="163"/>
+      <c r="S37" s="162"/>
+      <c r="T37" s="162"/>
+      <c r="U37" s="162"/>
+      <c r="V37" s="164"/>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="166"/>
-      <c r="B38" s="167"/>
-      <c r="C38" s="168"/>
-      <c r="D38" s="168"/>
-      <c r="E38" s="168"/>
-      <c r="F38" s="168"/>
-      <c r="G38" s="168"/>
-      <c r="H38" s="168"/>
-      <c r="I38" s="168"/>
-      <c r="J38" s="168"/>
-      <c r="K38" s="168"/>
-      <c r="L38" s="168"/>
-      <c r="M38" s="168"/>
-      <c r="N38" s="168"/>
-      <c r="O38" s="167"/>
-      <c r="P38" s="168"/>
-      <c r="Q38" s="168"/>
-      <c r="R38" s="169"/>
-      <c r="S38" s="168"/>
-      <c r="T38" s="168"/>
-      <c r="U38" s="168"/>
-      <c r="V38" s="170"/>
+      <c r="A38" s="160"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="162"/>
+      <c r="D38" s="162"/>
+      <c r="E38" s="162"/>
+      <c r="F38" s="162"/>
+      <c r="G38" s="162"/>
+      <c r="H38" s="162"/>
+      <c r="I38" s="162"/>
+      <c r="J38" s="162"/>
+      <c r="K38" s="162"/>
+      <c r="L38" s="162"/>
+      <c r="M38" s="162"/>
+      <c r="N38" s="162"/>
+      <c r="O38" s="161"/>
+      <c r="P38" s="162"/>
+      <c r="Q38" s="162"/>
+      <c r="R38" s="163"/>
+      <c r="S38" s="162"/>
+      <c r="T38" s="162"/>
+      <c r="U38" s="162"/>
+      <c r="V38" s="164"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="166"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="168"/>
-      <c r="D39" s="168"/>
-      <c r="E39" s="168"/>
-      <c r="F39" s="168"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="168"/>
-      <c r="I39" s="168"/>
-      <c r="J39" s="168"/>
-      <c r="K39" s="168"/>
-      <c r="L39" s="168"/>
-      <c r="M39" s="168"/>
-      <c r="N39" s="168"/>
-      <c r="O39" s="167"/>
-      <c r="P39" s="168"/>
-      <c r="Q39" s="168"/>
-      <c r="R39" s="169"/>
-      <c r="S39" s="168"/>
-      <c r="T39" s="168"/>
-      <c r="U39" s="168"/>
-      <c r="V39" s="170"/>
+      <c r="A39" s="160"/>
+      <c r="B39" s="161"/>
+      <c r="C39" s="162"/>
+      <c r="D39" s="162"/>
+      <c r="E39" s="162"/>
+      <c r="F39" s="162"/>
+      <c r="G39" s="162"/>
+      <c r="H39" s="162"/>
+      <c r="I39" s="162"/>
+      <c r="J39" s="162"/>
+      <c r="K39" s="162"/>
+      <c r="L39" s="162"/>
+      <c r="M39" s="162"/>
+      <c r="N39" s="162"/>
+      <c r="O39" s="161"/>
+      <c r="P39" s="162"/>
+      <c r="Q39" s="162"/>
+      <c r="R39" s="163"/>
+      <c r="S39" s="162"/>
+      <c r="T39" s="162"/>
+      <c r="U39" s="162"/>
+      <c r="V39" s="164"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="166"/>
-      <c r="B40" s="167"/>
-      <c r="C40" s="168"/>
-      <c r="D40" s="168"/>
-      <c r="E40" s="168"/>
-      <c r="F40" s="168"/>
-      <c r="G40" s="168"/>
-      <c r="H40" s="168"/>
-      <c r="I40" s="168"/>
-      <c r="J40" s="168"/>
-      <c r="K40" s="168"/>
-      <c r="L40" s="168"/>
-      <c r="M40" s="168"/>
-      <c r="N40" s="168"/>
-      <c r="O40" s="167"/>
-      <c r="P40" s="168"/>
-      <c r="Q40" s="168"/>
-      <c r="R40" s="169"/>
-      <c r="S40" s="168"/>
-      <c r="T40" s="168"/>
-      <c r="U40" s="168"/>
-      <c r="V40" s="170"/>
+      <c r="A40" s="160"/>
+      <c r="B40" s="161"/>
+      <c r="C40" s="162"/>
+      <c r="D40" s="162"/>
+      <c r="E40" s="162"/>
+      <c r="F40" s="162"/>
+      <c r="G40" s="162"/>
+      <c r="H40" s="162"/>
+      <c r="I40" s="162"/>
+      <c r="J40" s="162"/>
+      <c r="K40" s="162"/>
+      <c r="L40" s="162"/>
+      <c r="M40" s="162"/>
+      <c r="N40" s="162"/>
+      <c r="O40" s="161"/>
+      <c r="P40" s="162"/>
+      <c r="Q40" s="162"/>
+      <c r="R40" s="163"/>
+      <c r="S40" s="162"/>
+      <c r="T40" s="162"/>
+      <c r="U40" s="162"/>
+      <c r="V40" s="164"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="166"/>
-      <c r="B41" s="167"/>
-      <c r="C41" s="168"/>
-      <c r="D41" s="168"/>
-      <c r="E41" s="168"/>
-      <c r="F41" s="168"/>
-      <c r="G41" s="168"/>
-      <c r="H41" s="168"/>
-      <c r="I41" s="168"/>
-      <c r="J41" s="168"/>
-      <c r="K41" s="168"/>
-      <c r="L41" s="168"/>
-      <c r="M41" s="168"/>
-      <c r="N41" s="168"/>
-      <c r="O41" s="167"/>
-      <c r="P41" s="168"/>
-      <c r="Q41" s="168"/>
-      <c r="R41" s="169"/>
-      <c r="S41" s="168"/>
-      <c r="T41" s="168"/>
-      <c r="U41" s="168"/>
-      <c r="V41" s="170"/>
+      <c r="A41" s="160"/>
+      <c r="B41" s="161"/>
+      <c r="C41" s="162"/>
+      <c r="D41" s="162"/>
+      <c r="E41" s="162"/>
+      <c r="F41" s="162"/>
+      <c r="G41" s="162"/>
+      <c r="H41" s="162"/>
+      <c r="I41" s="162"/>
+      <c r="J41" s="162"/>
+      <c r="K41" s="162"/>
+      <c r="L41" s="162"/>
+      <c r="M41" s="162"/>
+      <c r="N41" s="162"/>
+      <c r="O41" s="161"/>
+      <c r="P41" s="162"/>
+      <c r="Q41" s="162"/>
+      <c r="R41" s="163"/>
+      <c r="S41" s="162"/>
+      <c r="T41" s="162"/>
+      <c r="U41" s="162"/>
+      <c r="V41" s="164"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="166"/>
-      <c r="B42" s="167"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="168"/>
-      <c r="E42" s="168"/>
-      <c r="F42" s="168"/>
-      <c r="G42" s="168"/>
-      <c r="H42" s="168"/>
-      <c r="I42" s="168"/>
-      <c r="J42" s="168"/>
-      <c r="K42" s="168"/>
-      <c r="L42" s="168"/>
-      <c r="M42" s="168"/>
-      <c r="N42" s="168"/>
-      <c r="O42" s="167"/>
-      <c r="P42" s="168"/>
-      <c r="Q42" s="168"/>
-      <c r="R42" s="169"/>
-      <c r="S42" s="168"/>
-      <c r="T42" s="168"/>
-      <c r="U42" s="168"/>
-      <c r="V42" s="170"/>
+      <c r="A42" s="160"/>
+      <c r="B42" s="161"/>
+      <c r="C42" s="162"/>
+      <c r="D42" s="162"/>
+      <c r="E42" s="162"/>
+      <c r="F42" s="162"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="162"/>
+      <c r="I42" s="162"/>
+      <c r="J42" s="162"/>
+      <c r="K42" s="162"/>
+      <c r="L42" s="162"/>
+      <c r="M42" s="162"/>
+      <c r="N42" s="162"/>
+      <c r="O42" s="161"/>
+      <c r="P42" s="162"/>
+      <c r="Q42" s="162"/>
+      <c r="R42" s="163"/>
+      <c r="S42" s="162"/>
+      <c r="T42" s="162"/>
+      <c r="U42" s="162"/>
+      <c r="V42" s="164"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="166"/>
-      <c r="B43" s="167"/>
-      <c r="C43" s="168"/>
-      <c r="D43" s="168"/>
-      <c r="E43" s="168"/>
-      <c r="F43" s="168"/>
-      <c r="G43" s="168"/>
-      <c r="H43" s="168"/>
-      <c r="I43" s="168"/>
-      <c r="J43" s="168"/>
-      <c r="K43" s="168"/>
-      <c r="L43" s="168"/>
-      <c r="M43" s="168"/>
-      <c r="N43" s="168"/>
-      <c r="O43" s="167"/>
-      <c r="P43" s="168"/>
-      <c r="Q43" s="168"/>
-      <c r="R43" s="169"/>
-      <c r="S43" s="168"/>
-      <c r="T43" s="168"/>
-      <c r="U43" s="168"/>
-      <c r="V43" s="170"/>
+      <c r="A43" s="160"/>
+      <c r="B43" s="161"/>
+      <c r="C43" s="162"/>
+      <c r="D43" s="162"/>
+      <c r="E43" s="162"/>
+      <c r="F43" s="162"/>
+      <c r="G43" s="162"/>
+      <c r="H43" s="162"/>
+      <c r="I43" s="162"/>
+      <c r="J43" s="162"/>
+      <c r="K43" s="162"/>
+      <c r="L43" s="162"/>
+      <c r="M43" s="162"/>
+      <c r="N43" s="162"/>
+      <c r="O43" s="161"/>
+      <c r="P43" s="162"/>
+      <c r="Q43" s="162"/>
+      <c r="R43" s="163"/>
+      <c r="S43" s="162"/>
+      <c r="T43" s="162"/>
+      <c r="U43" s="162"/>
+      <c r="V43" s="164"/>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="166"/>
-      <c r="B44" s="167"/>
-      <c r="C44" s="168"/>
-      <c r="D44" s="168"/>
-      <c r="E44" s="168"/>
-      <c r="F44" s="168"/>
-      <c r="G44" s="168"/>
-      <c r="H44" s="168"/>
-      <c r="I44" s="168"/>
-      <c r="J44" s="168"/>
-      <c r="K44" s="168"/>
-      <c r="L44" s="168"/>
-      <c r="M44" s="168"/>
-      <c r="N44" s="168"/>
-      <c r="O44" s="167"/>
-      <c r="P44" s="168"/>
-      <c r="Q44" s="168"/>
-      <c r="R44" s="169"/>
-      <c r="S44" s="168"/>
-      <c r="T44" s="168"/>
-      <c r="U44" s="168"/>
-      <c r="V44" s="170"/>
+      <c r="A44" s="160"/>
+      <c r="B44" s="161"/>
+      <c r="C44" s="162"/>
+      <c r="D44" s="162"/>
+      <c r="E44" s="162"/>
+      <c r="F44" s="162"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="162"/>
+      <c r="I44" s="162"/>
+      <c r="J44" s="162"/>
+      <c r="K44" s="162"/>
+      <c r="L44" s="162"/>
+      <c r="M44" s="162"/>
+      <c r="N44" s="162"/>
+      <c r="O44" s="161"/>
+      <c r="P44" s="162"/>
+      <c r="Q44" s="162"/>
+      <c r="R44" s="163"/>
+      <c r="S44" s="162"/>
+      <c r="T44" s="162"/>
+      <c r="U44" s="162"/>
+      <c r="V44" s="164"/>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="166"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="168"/>
-      <c r="D45" s="168"/>
-      <c r="E45" s="168"/>
-      <c r="F45" s="168"/>
-      <c r="G45" s="168"/>
-      <c r="H45" s="168"/>
-      <c r="I45" s="168"/>
-      <c r="J45" s="168"/>
-      <c r="K45" s="168"/>
-      <c r="L45" s="168"/>
-      <c r="M45" s="168"/>
-      <c r="N45" s="168"/>
-      <c r="O45" s="167"/>
-      <c r="P45" s="168"/>
-      <c r="Q45" s="168"/>
-      <c r="R45" s="169"/>
-      <c r="S45" s="168"/>
-      <c r="T45" s="168"/>
-      <c r="U45" s="168"/>
-      <c r="V45" s="170"/>
+      <c r="A45" s="160"/>
+      <c r="B45" s="161"/>
+      <c r="C45" s="162"/>
+      <c r="D45" s="162"/>
+      <c r="E45" s="162"/>
+      <c r="F45" s="162"/>
+      <c r="G45" s="162"/>
+      <c r="H45" s="162"/>
+      <c r="I45" s="162"/>
+      <c r="J45" s="162"/>
+      <c r="K45" s="162"/>
+      <c r="L45" s="162"/>
+      <c r="M45" s="162"/>
+      <c r="N45" s="162"/>
+      <c r="O45" s="161"/>
+      <c r="P45" s="162"/>
+      <c r="Q45" s="162"/>
+      <c r="R45" s="163"/>
+      <c r="S45" s="162"/>
+      <c r="T45" s="162"/>
+      <c r="U45" s="162"/>
+      <c r="V45" s="164"/>
     </row>
     <row r="46" spans="1:22">
-      <c r="A46" s="166"/>
-      <c r="B46" s="167"/>
-      <c r="C46" s="168"/>
-      <c r="D46" s="168"/>
-      <c r="E46" s="168"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="168"/>
-      <c r="H46" s="168"/>
-      <c r="I46" s="168"/>
-      <c r="J46" s="168"/>
-      <c r="K46" s="168"/>
-      <c r="L46" s="168"/>
-      <c r="M46" s="168"/>
-      <c r="N46" s="168"/>
-      <c r="O46" s="167"/>
-      <c r="P46" s="168"/>
-      <c r="Q46" s="168"/>
-      <c r="R46" s="169"/>
-      <c r="S46" s="168"/>
-      <c r="T46" s="168"/>
-      <c r="U46" s="168"/>
-      <c r="V46" s="170"/>
+      <c r="A46" s="160"/>
+      <c r="B46" s="161"/>
+      <c r="C46" s="162"/>
+      <c r="D46" s="162"/>
+      <c r="E46" s="162"/>
+      <c r="F46" s="162"/>
+      <c r="G46" s="162"/>
+      <c r="H46" s="162"/>
+      <c r="I46" s="162"/>
+      <c r="J46" s="162"/>
+      <c r="K46" s="162"/>
+      <c r="L46" s="162"/>
+      <c r="M46" s="162"/>
+      <c r="N46" s="162"/>
+      <c r="O46" s="161"/>
+      <c r="P46" s="162"/>
+      <c r="Q46" s="162"/>
+      <c r="R46" s="163"/>
+      <c r="S46" s="162"/>
+      <c r="T46" s="162"/>
+      <c r="U46" s="162"/>
+      <c r="V46" s="164"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="166"/>
-      <c r="B47" s="167"/>
-      <c r="C47" s="168"/>
-      <c r="D47" s="168"/>
-      <c r="E47" s="168"/>
-      <c r="F47" s="168"/>
-      <c r="G47" s="168"/>
-      <c r="H47" s="168"/>
-      <c r="I47" s="168"/>
-      <c r="J47" s="168"/>
-      <c r="K47" s="168"/>
-      <c r="L47" s="168"/>
-      <c r="M47" s="168"/>
-      <c r="N47" s="168"/>
-      <c r="O47" s="167"/>
-      <c r="P47" s="168"/>
-      <c r="Q47" s="168"/>
-      <c r="R47" s="169"/>
-      <c r="S47" s="168"/>
-      <c r="T47" s="168"/>
-      <c r="U47" s="168"/>
-      <c r="V47" s="170"/>
+      <c r="A47" s="160"/>
+      <c r="B47" s="161"/>
+      <c r="C47" s="162"/>
+      <c r="D47" s="162"/>
+      <c r="E47" s="162"/>
+      <c r="F47" s="162"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="162"/>
+      <c r="I47" s="162"/>
+      <c r="J47" s="162"/>
+      <c r="K47" s="162"/>
+      <c r="L47" s="162"/>
+      <c r="M47" s="162"/>
+      <c r="N47" s="162"/>
+      <c r="O47" s="161"/>
+      <c r="P47" s="162"/>
+      <c r="Q47" s="162"/>
+      <c r="R47" s="163"/>
+      <c r="S47" s="162"/>
+      <c r="T47" s="162"/>
+      <c r="U47" s="162"/>
+      <c r="V47" s="164"/>
     </row>
     <row r="48" spans="1:22" ht="14.25" thickBot="1">
-      <c r="A48" s="171"/>
-      <c r="B48" s="172"/>
-      <c r="C48" s="173"/>
-      <c r="D48" s="173"/>
-      <c r="E48" s="173"/>
-      <c r="F48" s="173"/>
-      <c r="G48" s="173"/>
-      <c r="H48" s="173"/>
-      <c r="I48" s="173"/>
-      <c r="J48" s="173"/>
-      <c r="K48" s="173"/>
-      <c r="L48" s="173"/>
-      <c r="M48" s="173"/>
-      <c r="N48" s="173"/>
-      <c r="O48" s="172"/>
-      <c r="P48" s="173"/>
-      <c r="Q48" s="173"/>
-      <c r="R48" s="174"/>
-      <c r="S48" s="173"/>
-      <c r="T48" s="173"/>
-      <c r="U48" s="173"/>
-      <c r="V48" s="175"/>
+      <c r="A48" s="165"/>
+      <c r="B48" s="166"/>
+      <c r="C48" s="167"/>
+      <c r="D48" s="167"/>
+      <c r="E48" s="167"/>
+      <c r="F48" s="167"/>
+      <c r="G48" s="167"/>
+      <c r="H48" s="167"/>
+      <c r="I48" s="167"/>
+      <c r="J48" s="167"/>
+      <c r="K48" s="167"/>
+      <c r="L48" s="167"/>
+      <c r="M48" s="167"/>
+      <c r="N48" s="167"/>
+      <c r="O48" s="166"/>
+      <c r="P48" s="167"/>
+      <c r="Q48" s="167"/>
+      <c r="R48" s="168"/>
+      <c r="S48" s="167"/>
+      <c r="T48" s="167"/>
+      <c r="U48" s="167"/>
+      <c r="V48" s="169"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
